--- a/vignettes/s_pneumoniae_strains_sweden.xlsx
+++ b/vignettes/s_pneumoniae_strains_sweden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascroucher/Documents/progression_rate_estimation/progressionEstimation/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE13DE-8B84-6C48-A8B9-16096C067BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E3521-0D4D-4147-A6A2-8F4F35CA8053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32340" yWindow="3880" windowWidth="31340" windowHeight="14440" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,6 +506,7 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <f>611+719</f>
         <v>1330</v>
       </c>
       <c r="F2">
@@ -532,6 +533,7 @@
         <v>3</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">611+719</f>
         <v>1330</v>
       </c>
       <c r="F3">
@@ -558,6 +560,7 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F4">
@@ -584,6 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F5">
@@ -610,6 +614,7 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F6">
@@ -636,6 +641,7 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F7">
@@ -662,6 +668,7 @@
         <v>12</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F8">
@@ -688,6 +695,7 @@
         <v>7</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F9">
@@ -714,6 +722,7 @@
         <v>9</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F10">
@@ -740,6 +749,7 @@
         <v>13</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F11">
@@ -766,6 +776,7 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F12">
@@ -792,6 +803,7 @@
         <v>10</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F13">
@@ -818,6 +830,7 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F14">
@@ -844,6 +857,7 @@
         <v>4</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F15">
@@ -870,6 +884,7 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F16">
@@ -896,6 +911,7 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F17">
@@ -922,6 +938,7 @@
         <v>0</v>
       </c>
       <c r="E18">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F18">
@@ -948,6 +965,7 @@
         <v>2</v>
       </c>
       <c r="E19">
+        <f t="shared" si="0"/>
         <v>1330</v>
       </c>
       <c r="F19">
@@ -988,10 +1006,10 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="carriage_samples" prompt="The number of individuals in the carriage study, including negative samples (must be a non-negative integer that is consistent across each study)" sqref="E20:E1048576 D11:D19 C2:C10 E1" xr:uid="{08AFE457-53F4-3344-ADAD-98B6ABDF6FDA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="surveillance_population" prompt="The number of individuals of the relevant demographic in the population under surveillance (must be a non-negative integer consistent across each study)" sqref="F20:F1048576 E11:E19 D2:D10 F1" xr:uid="{26AFF274-CC83-2247-99E6-36F14F832043}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="surveillance_population" prompt="The number of individuals of the relevant demographic in the population under surveillance (must be a non-negative integer consistent across each study)" sqref="F20:F1048576 F1 D2:D10" xr:uid="{26AFF274-CC83-2247-99E6-36F14F832043}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="time_interval" prompt="The duration of the disease surveillance period (must be consistent across each study)" sqref="G20:G1048576 F11:F19 E2:E10 G1" xr:uid="{7D5C3DA2-22EC-F746-AB8E-DFE0F6C2EECB}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="time_interval" prompt="The duration of the disease surveillance period (must be consistent across each study)" sqref="G20:G1048576 F11:F19 G1 E2:E19" xr:uid="{7D5C3DA2-22EC-F746-AB8E-DFE0F6C2EECB}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="strain" prompt="Optional column specifying the strain background when two subtyping categoriations are used in the analysis" sqref="H20:H1048576 G11:G19 F2:F10 H1" xr:uid="{EEEAAE33-77E6-8947-BE6B-00538FD9F9CA}"/>

--- a/vignettes/s_pneumoniae_strains_sweden.xlsx
+++ b/vignettes/s_pneumoniae_strains_sweden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascroucher/Documents/progression_rate_estimation/progressionEstimation/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E3521-0D4D-4147-A6A2-8F4F35CA8053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8147B6B3-7F14-5447-B41C-7761F5CC94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32340" yWindow="3880" windowWidth="31340" windowHeight="14440" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
+    <workbookView xWindow="-30360" yWindow="4420" windowWidth="31340" windowHeight="14440" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="case_carriage_study" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>study</t>
   </si>
   <si>
-    <t>categorisation</t>
-  </si>
-  <si>
     <t>carriage_samples</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>ST414</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,33 +471,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>25</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -948,15 +948,15 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -994,13 +994,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
     <sortCondition ref="H2:H23"/>
   </sortState>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="study" prompt="Unique name of the case-carrier study." sqref="A1:A1048576" xr:uid="{2435CC46-B0F7-5E4E-8AD4-F163026A9A43}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="categorisation" prompt="The label of the subdivision of the microbial population" sqref="B1:B10 B20:B1048576 A11:A19" xr:uid="{76DB945B-4317-0741-A9F1-6F3EE74306A3}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="carriage" prompt="The number of isolates of this subtype recovered from asymptomatic carriers (must be a non-negative integer)" sqref="C20:C1048576 B11:B19 A2:A10 C1" xr:uid="{BAE78EC0-D7B3-1741-9D15-2E811F22465D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="categorisation" prompt="The label of the subdivision of the microbial population" sqref="A11:A19 B20:B1048576" xr:uid="{76DB945B-4317-0741-A9F1-6F3EE74306A3}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="carriage" prompt="The number of isolates of this subtype recovered from asymptomatic carriers (must be a non-negative integer)" sqref="C20:C1048576 C1 A2:A10" xr:uid="{BAE78EC0-D7B3-1741-9D15-2E811F22465D}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="disease" prompt="The number of isolates of this subtype recovered from disease (must be a non-negative integer)" sqref="D20:D1048576 C11:C19 B2:B10 D1" xr:uid="{A52AA0A8-2060-8644-AF09-4CC2B659BD45}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="disease" prompt="The number of isolates of this subtype recovered from disease (must be a non-negative integer)" sqref="D20:D1048576 C11:C19 D1" xr:uid="{A52AA0A8-2060-8644-AF09-4CC2B659BD45}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="carriage_samples" prompt="The number of individuals in the carriage study, including negative samples (must be a non-negative integer that is consistent across each study)" sqref="E20:E1048576 D11:D19 C2:C10 E1" xr:uid="{08AFE457-53F4-3344-ADAD-98B6ABDF6FDA}">
@@ -1013,6 +1013,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="strain" prompt="Optional column specifying the strain background when two subtyping categoriations are used in the analysis" sqref="H20:H1048576 G11:G19 F2:F10 H1" xr:uid="{EEEAAE33-77E6-8947-BE6B-00538FD9F9CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="type" prompt="The subdivision of the microbial population to which the isolates belong" sqref="B1:B19" xr:uid="{DD5C4D8C-EFCF-D945-981E-2DF9A1FD34DA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
